--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14795,7 +14795,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14843,7 +14843,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14795,7 +14795,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14843,7 +14843,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14843,7 +14843,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14843,7 +14843,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14843,7 +14843,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/02/2022</t>
+          <t>04/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -7303,7 +7303,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA.</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/06/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>RESAM S.A.</t>
+          <t>Ilustre Municipalidad de Talca</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Rellenos Sanitarios del Maule S.A.</t>
+          <t>Ilustre Municipalidad de Talca</t>
         </is>
       </c>
       <c r="F313" t="n">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18.864595</v>
+        <v>18865</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/12/2022</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inmobiliaria Independencia S.A.</t>
+          <t>Constructora Independencia SpA.</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria Independencia S.A.</t>
+          <t>Constructora Independencia SpA.</t>
         </is>
       </c>
       <c r="F58" t="n">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inmobiliaria Independencia S.A.</t>
+          <t>Constructora Independencia SpA.</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -15415,7 +15415,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talca</t>
+          <t>RESAM S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talca</t>
+          <t>RESAM S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/04/2023</t>
+          <t>02/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/08/2023</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160061306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/09/2023</t>
+          <t>13/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160061306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160061306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160061306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Constructora e inmobiliaria Independencia S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Bicentenario (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora e inmobiliaria Independencia S. A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3379621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Aguas del Centro S.A.</t>
+          <t>Comercial Hugo Casanova Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA HUGO CASANOVA (e-seia)</t>
+          <t>Captación, Tratamiento y Estanque Regulación Agua Potable Loteo Don Joaquín (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Comercial Hugo Casanova Ltda.</t>
+          <t>Aguas del Centro S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1586167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
+          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Diseño Sistema de Alcantarillado Villa Illinois</t>
+          <t>Diseño Sistema de Alcantarillado Sector Panguilemo</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Talca.xlsx
+++ b/data/Talca.xlsx
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Acciona Construcción S.A., Agencia Chile</t>
+          <t>Servicio Público Gendarmería de Chile</t>
         </is>
       </c>
       <c r="F179" t="n">
